--- a/Data/data_td_2_solution.xlsx
+++ b/Data/data_td_2_solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinvaldez/Documents/git/Macro-1-EC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5897DB7A-BBD2-E844-BEC3-9C90B0E6E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A04218-A6D8-EC42-B16F-07F200364AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="14440" xr2:uid="{53CC6522-517D-D64D-A57A-075322AB1AA6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -256,8 +256,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -320,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -333,6 +334,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2931,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3364EC-9B22-8241-B65C-D4060D71316A}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G14" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3039,11 +3041,11 @@
       <c r="F3" s="2">
         <v>113.18600000000001</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="8">
         <f>E3/B3</f>
         <v>0.5490698908538072</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="8">
         <f>F3/B3</f>
         <v>0.32467335025744731</v>
       </c>
@@ -3079,11 +3081,11 @@
       <c r="F4" s="2">
         <v>128.12200000000001</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="8">
         <f t="shared" ref="G4:G47" si="1">E4/B4</f>
         <v>0.54593807287612062</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="8">
         <f t="shared" ref="H4:H47" si="2">F4/B4</f>
         <v>0.32174480801587108</v>
       </c>
@@ -3151,11 +3153,11 @@
       <c r="F5" s="2">
         <v>144.35599999999999</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="8">
         <f t="shared" si="1"/>
         <v>0.55324390729796136</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="8">
         <f t="shared" si="2"/>
         <v>0.31953427629103304</v>
       </c>
@@ -3223,11 +3225,11 @@
       <c r="F6" s="2">
         <v>161.6</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="8">
         <f t="shared" si="1"/>
         <v>0.55647911213074897</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="8">
         <f t="shared" si="2"/>
         <v>0.31687206486465286</v>
       </c>
@@ -3295,11 +3297,11 @@
       <c r="F7" s="2">
         <v>184.82</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="8">
         <f t="shared" si="1"/>
         <v>0.55560087305393102</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
         <f t="shared" si="2"/>
         <v>0.31539841191558199</v>
       </c>
@@ -3367,11 +3369,11 @@
       <c r="F8" s="2">
         <v>209.51300000000001</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="8">
         <f t="shared" si="1"/>
         <v>0.54986994859433802</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="8">
         <f t="shared" si="2"/>
         <v>0.32207399709767082</v>
       </c>
@@ -3439,11 +3441,11 @@
       <c r="F9" s="2">
         <v>232.238</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="8">
         <f t="shared" si="1"/>
         <v>0.54331075060464196</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="8">
         <f t="shared" si="2"/>
         <v>0.32846979618969491</v>
       </c>
@@ -3511,11 +3513,11 @@
       <c r="F10" s="2">
         <v>253.51900000000001</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>0.53660802783199968</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="8">
         <f t="shared" si="2"/>
         <v>0.33459506472972422</v>
       </c>
@@ -3583,11 +3585,11 @@
       <c r="F11" s="2">
         <v>285.78800000000001</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="8">
         <f t="shared" si="1"/>
         <v>0.52375656153479755</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="8">
         <f t="shared" si="2"/>
         <v>0.35083403306669808</v>
       </c>
@@ -3655,11 +3657,11 @@
       <c r="F12" s="2">
         <v>301.55</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="8">
         <f t="shared" si="1"/>
         <v>0.52007808566291625</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="8">
         <f t="shared" si="2"/>
         <v>0.35228503369809916</v>
       </c>
@@ -3727,11 +3729,11 @@
       <c r="F13" s="2">
         <v>334.346</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="8">
         <f t="shared" si="1"/>
         <v>0.50814999756813284</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="8">
         <f t="shared" si="2"/>
         <v>0.36137114076187699</v>
       </c>
@@ -3799,11 +3801,11 @@
       <c r="F14" s="2">
         <v>368.12</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="8">
         <f t="shared" si="1"/>
         <v>0.50193206240767174</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="8">
         <f t="shared" si="2"/>
         <v>0.36918287750433498</v>
       </c>
@@ -3871,11 +3873,11 @@
       <c r="F15" s="2">
         <v>384.209</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="8">
         <f t="shared" si="1"/>
         <v>0.5071615287799488</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="8">
         <f t="shared" si="2"/>
         <v>0.36468175096293848</v>
       </c>
@@ -3943,11 +3945,11 @@
       <c r="F16" s="2">
         <v>394.82600000000002</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="8">
         <f t="shared" si="1"/>
         <v>0.51099335443182914</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="8">
         <f t="shared" si="2"/>
         <v>0.36165997224524943</v>
       </c>
@@ -4015,11 +4017,11 @@
       <c r="F17" s="2">
         <v>411.12200000000001</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="8">
         <f t="shared" si="1"/>
         <v>0.5122322793534474</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="8">
         <f t="shared" si="2"/>
         <v>0.36350855848407981</v>
       </c>
@@ -4087,11 +4089,11 @@
       <c r="F18" s="2">
         <v>410.16500000000002</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="8">
         <f t="shared" si="1"/>
         <v>0.51550057393318915</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="8">
         <f t="shared" si="2"/>
         <v>0.35912632571562164</v>
       </c>
@@ -4159,11 +4161,11 @@
       <c r="F19" s="2">
         <v>422.08600000000001</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="8">
         <f t="shared" si="1"/>
         <v>0.50923451541572051</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="8">
         <f t="shared" si="2"/>
         <v>0.35774032157861863</v>
       </c>
@@ -4231,11 +4233,11 @@
       <c r="F20" s="2">
         <v>430.73500000000001</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="8">
         <f t="shared" si="1"/>
         <v>0.5107508743935063</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="8">
         <f t="shared" si="2"/>
         <v>0.35356196845862958</v>
       </c>
@@ -4303,11 +4305,11 @@
       <c r="F21" s="2">
         <v>436.54599999999999</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="8">
         <f t="shared" si="1"/>
         <v>0.51072934983461971</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="8">
         <f t="shared" si="2"/>
         <v>0.34860484912949802</v>
       </c>
@@ -4375,11 +4377,11 @@
       <c r="F22" s="2">
         <v>453.72399999999999</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="8">
         <f t="shared" si="1"/>
         <v>0.50757168483040771</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="8">
         <f t="shared" si="2"/>
         <v>0.35096849650016976</v>
       </c>
@@ -4447,11 +4449,11 @@
       <c r="F23" s="2">
         <v>480.89400000000001</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="8">
         <f t="shared" si="1"/>
         <v>0.50378061626042236</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="8">
         <f t="shared" si="2"/>
         <v>0.35571819134016225</v>
       </c>
@@ -4519,11 +4521,11 @@
       <c r="F24" s="2">
         <v>492.65899999999999</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="8">
         <f t="shared" si="1"/>
         <v>0.50853355355714036</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="8">
         <f t="shared" si="2"/>
         <v>0.35164835949204815</v>
       </c>
@@ -4591,11 +4593,11 @@
       <c r="F25" s="2">
         <v>527.76199999999994</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="8">
         <f t="shared" si="1"/>
         <v>0.5082602623454181</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="8">
         <f t="shared" si="2"/>
         <v>0.35693720685655539</v>
       </c>
@@ -4663,11 +4665,11 @@
       <c r="F26" s="2">
         <v>552.91</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="8">
         <f t="shared" si="1"/>
         <v>0.51061695488233005</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="8">
         <f t="shared" si="2"/>
         <v>0.35945260694318032</v>
       </c>
@@ -4735,11 +4737,11 @@
       <c r="F27" s="2">
         <v>564.82899999999995</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="8">
         <f t="shared" si="1"/>
         <v>0.51502649214745422</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="8">
         <f t="shared" si="2"/>
         <v>0.35572407356207753</v>
       </c>
@@ -4807,11 +4809,11 @@
       <c r="F28" s="2">
         <v>578.73400000000004</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="8">
         <f t="shared" si="1"/>
         <v>0.51618173188132954</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="8">
         <f t="shared" si="2"/>
         <v>0.35490652285630536</v>
       </c>
@@ -4879,11 +4881,11 @@
       <c r="F29" s="2">
         <v>607.47299999999996</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="8">
         <f t="shared" si="1"/>
         <v>0.51124019157063394</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="8">
         <f t="shared" si="2"/>
         <v>0.35649426444188709</v>
       </c>
@@ -4951,11 +4953,11 @@
       <c r="F30" s="2">
         <v>625.01400000000001</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="8">
         <f t="shared" si="1"/>
         <v>0.51144427361607792</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="8">
         <f t="shared" si="2"/>
         <v>0.35393410177784196</v>
       </c>
@@ -5023,11 +5025,11 @@
       <c r="F31" s="2">
         <v>659.20899999999995</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="8">
         <f t="shared" si="1"/>
         <v>0.50970510526466717</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="8">
         <f t="shared" si="2"/>
         <v>0.35668568206818596</v>
       </c>
@@ -5095,11 +5097,11 @@
       <c r="F32" s="2">
         <v>705.55799999999999</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="8">
         <f t="shared" si="1"/>
         <v>0.50476470103432647</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="8">
         <f t="shared" si="2"/>
         <v>0.36343491160835706</v>
       </c>
@@ -5167,11 +5169,11 @@
       <c r="F33" s="2">
         <v>725.06100000000004</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="8">
         <f t="shared" si="1"/>
         <v>0.50702777582589664</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="8">
         <f t="shared" si="2"/>
         <v>0.36391702386091007</v>
       </c>
@@ -5239,11 +5241,11 @@
       <c r="F34" s="2">
         <v>675.93299999999999</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="8">
         <f t="shared" si="1"/>
         <v>0.5231364857453592</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="8">
         <f t="shared" si="2"/>
         <v>0.34906285923213015</v>
       </c>
@@ -5311,11 +5313,11 @@
       <c r="F35" s="2">
         <v>705.00099999999998</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="8">
         <f t="shared" si="1"/>
         <v>0.52133400224228166</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="8">
         <f t="shared" si="2"/>
         <v>0.35333277535234242</v>
       </c>
@@ -5383,11 +5385,11 @@
       <c r="F36" s="2">
         <v>720.31500000000005</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="8">
         <f t="shared" si="1"/>
         <v>0.51930873424541468</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="8">
         <f t="shared" si="2"/>
         <v>0.34994454347106863</v>
       </c>
@@ -5455,11 +5457,11 @@
       <c r="F37" s="2">
         <v>719.87900000000002</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="8">
         <f t="shared" si="1"/>
         <v>0.52295763508687265</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="8">
         <f t="shared" si="2"/>
         <v>0.34463693099017428</v>
       </c>
@@ -5527,11 +5529,11 @@
       <c r="F38" s="2">
         <v>721.89800000000002</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="8">
         <f t="shared" si="1"/>
         <v>0.52402854727256409</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="8">
         <f t="shared" si="2"/>
         <v>0.34096987044148142</v>
       </c>
@@ -5599,11 +5601,11 @@
       <c r="F39" s="2">
         <v>739.48599999999999</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="8">
         <f t="shared" si="1"/>
         <v>0.52410426255893094</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="8">
         <f t="shared" si="2"/>
         <v>0.34398457505820407</v>
       </c>
@@ -5671,11 +5673,11 @@
       <c r="F40" s="2">
         <v>770.85599999999999</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="8">
         <f t="shared" si="1"/>
         <v>0.51919777368597264</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="8">
         <f t="shared" si="2"/>
         <v>0.35063900088790562</v>
       </c>
@@ -5743,11 +5745,11 @@
       <c r="F41" s="2">
         <v>775.45100000000002</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="8">
         <f t="shared" si="1"/>
         <v>0.52068927085230987</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="8">
         <f t="shared" si="2"/>
         <v>0.34709320724094267</v>
       </c>
@@ -5815,11 +5817,11 @@
       <c r="F42" s="2">
         <v>786.31100000000004</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="8">
         <f t="shared" si="1"/>
         <v>0.52229630139097216</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="8">
         <f t="shared" si="2"/>
         <v>0.34228479193746236</v>
       </c>
@@ -5887,11 +5889,11 @@
       <c r="F43" s="2">
         <v>810.22799999999995</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="8">
         <f t="shared" si="1"/>
         <v>0.52110602689622076</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="8">
         <f t="shared" si="2"/>
         <v>0.34283668725082572</v>
       </c>
@@ -5959,11 +5961,11 @@
       <c r="F44" s="2">
         <v>858.15700000000004</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="8">
         <f t="shared" si="1"/>
         <v>0.5098675560533058</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="8">
         <f t="shared" si="2"/>
         <v>0.35204491238433971</v>
       </c>
@@ -6031,11 +6033,11 @@
       <c r="F45" s="2">
         <v>812.92600000000004</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="8">
         <f t="shared" si="1"/>
         <v>0.51560682568883331</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="8">
         <f t="shared" si="2"/>
         <v>0.35072688615913494</v>
       </c>
@@ -6103,11 +6105,11 @@
       <c r="F46" s="2">
         <v>885.06700000000001</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="8">
         <f t="shared" si="1"/>
         <v>0.51381149889813349</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="8">
         <f t="shared" si="2"/>
         <v>0.35372712238191806</v>
       </c>
@@ -6175,11 +6177,11 @@
       <c r="F47" s="2">
         <v>898.92499999999995</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="8">
         <f t="shared" si="1"/>
         <v>0.52350202266537127</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="8">
         <f t="shared" si="2"/>
         <v>0.34061904624772454</v>
       </c>

--- a/Data/data_td_2_solution.xlsx
+++ b/Data/data_td_2_solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinvaldez/Documents/git/Macro-1-EC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A04218-A6D8-EC42-B16F-07F200364AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB25B16F-B0AA-A243-901E-23A4E340493D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="14440" xr2:uid="{53CC6522-517D-D64D-A57A-075322AB1AA6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{53CC6522-517D-D64D-A57A-075322AB1AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -334,7 +334,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2934,7 +2934,7 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H47"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
